--- a/Data/EC/NIT-9010109843.xlsx
+++ b/Data/EC/NIT-9010109843.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1633596-0C1D-49D3-BBE4-04350E4DAEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB56CD0-95EE-4F9F-8397-C3FA76901521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF3A6D35-20A2-4019-BD85-BAB73186CA9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65DA0813-5BCC-4F59-A264-C6C122DDD6D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,36 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143329024</t>
+  </si>
+  <si>
+    <t>WILMER JOSE PUELLO GONZALEZ</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>1047486394</t>
+  </si>
+  <si>
+    <t>IRAYDA LAVOE ALCALA RIOS</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1050951430</t>
+  </si>
+  <si>
+    <t>OSNAIDER ENRIQUE RIVERO RIVERO</t>
+  </si>
+  <si>
+    <t>1007264496</t>
+  </si>
+  <si>
+    <t>ERIS ANDRES ARELLANO CABARCAS</t>
+  </si>
+  <si>
     <t>1128052700</t>
   </si>
   <si>
@@ -80,24 +110,24 @@
     <t>EMIRO RAFAEL MARTINEZ BENITEZ</t>
   </si>
   <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2003</t>
   </si>
   <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
     <t>1044934463</t>
   </si>
   <si>
@@ -105,15 +135,6 @@
   </si>
   <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>1143329024</t>
-  </si>
-  <si>
-    <t>WILMER JOSE PUELLO GONZALEZ</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -157,7 +178,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FA8779-BCBE-BDCA-97FC-6516B4DC4A06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC3B3B7-B5F1-F3C0-C1B1-406F2D175F10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,32 +899,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BEBA3B-AF15-42E7-BF6C-5740807AC9AD}">
-  <dimension ref="B2:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31004CC4-EF88-45E4-B5AD-5DDB68C4B094}">
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -912,7 +933,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +944,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +955,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,10 +966,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -961,8 +982,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,15 +998,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>256064</v>
+        <v>265554</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,27 +1014,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1033,16 +1054,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,16 +1077,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>17067</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1079,96 +1100,96 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>10534</v>
+        <v>5694</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>1898</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>1898</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1180,18 +1201,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1203,80 +1224,149 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F23" s="18">
-        <v>21654</v>
+        <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="24">
-        <v>17067</v>
-      </c>
-      <c r="G24" s="24">
-        <v>1600000</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="E24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="18">
+        <v>10534</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="24">
+        <v>21654</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010109843.xlsx
+++ b/Data/EC/NIT-9010109843.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB56CD0-95EE-4F9F-8397-C3FA76901521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57C01DEE-0076-44EE-9EC8-4449B28E2208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65DA0813-5BCC-4F59-A264-C6C122DDD6D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B5D9FA0-CB84-4788-90ED-FA14EE13D732}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,48 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128052700</t>
+  </si>
+  <si>
+    <t>KAREN SILGADO AYALA</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1068659636</t>
+  </si>
+  <si>
+    <t>EMIRO RAFAEL MARTINEZ BENITEZ</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>1044934463</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL ACOSTA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
     <t>1143329024</t>
   </si>
   <si>
@@ -93,48 +135,6 @@
   </si>
   <si>
     <t>ERIS ANDRES ARELLANO CABARCAS</t>
-  </si>
-  <si>
-    <t>1128052700</t>
-  </si>
-  <si>
-    <t>KAREN SILGADO AYALA</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1068659636</t>
-  </si>
-  <si>
-    <t>EMIRO RAFAEL MARTINEZ BENITEZ</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>1044934463</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL ACOSTA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2301</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -178,7 +178,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,7 +233,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -246,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -448,23 +448,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,10 +492,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC3B3B7-B5F1-F3C0-C1B1-406F2D175F10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA60294B-614E-6539-E2D6-3845945A9AE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,28 +899,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31004CC4-EF88-45E4-B5AD-5DDB68C4B094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4504FC6-8E0C-4A7F-BC99-6A1821C838CD}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -933,7 +933,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -944,7 +944,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -955,7 +955,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -966,8 +966,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
@@ -982,8 +982,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -998,8 +998,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
@@ -1014,8 +1014,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1077,16 +1077,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>17067</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1100,96 +1100,96 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>5694</v>
+        <v>10534</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>1898</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>1898</v>
+        <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1201,18 +1201,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1224,122 +1224,122 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F23" s="18">
-        <v>35112</v>
+        <v>21654</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
-        <v>35112</v>
+        <v>17067</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="18">
-        <v>35112</v>
+        <v>5694</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
-        <v>10534</v>
+        <v>1898</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F27" s="24">
-        <v>21654</v>
+        <v>1898</v>
       </c>
       <c r="G27" s="24">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="32" t="s">
         <v>42</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="32" t="s">
         <v>41</v>
       </c>

--- a/Data/EC/NIT-9010109843.xlsx
+++ b/Data/EC/NIT-9010109843.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57C01DEE-0076-44EE-9EC8-4449B28E2208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7773B996-19E8-4954-B8EC-7D6FD848F726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B5D9FA0-CB84-4788-90ED-FA14EE13D732}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F4AA4B8-A88A-47E2-A6B0-E75535E31A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,9 +233,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -248,7 +246,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -442,29 +442,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,19 +483,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA60294B-614E-6539-E2D6-3845945A9AE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F92F873-0CB3-9167-A241-25A1DE93AD1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,80 +905,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4504FC6-8E0C-4A7F-BC99-6A1821C838CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8470F354-C450-40E7-BB8C-40FC8CDDB55D}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -982,13 +988,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9010109843</v>
       </c>
@@ -998,13 +1004,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>265554</v>
       </c>
@@ -1014,8 +1020,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
@@ -1034,7 +1040,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1073,20 +1079,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>31249</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>781242</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1096,20 +1102,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>10534</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1000000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1119,20 +1125,20 @@
       <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>35112</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1142,20 +1148,20 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>35112</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1165,20 +1171,20 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>35112</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1188,20 +1194,20 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>35112</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1211,20 +1217,20 @@
       <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>35112</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1000000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1234,20 +1240,20 @@
       <c r="D23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>21654</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1160000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1257,20 +1263,20 @@
       <c r="D24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>17067</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1600000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1280,20 +1286,20 @@
       <c r="D25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>5694</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1423500</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1303,58 +1309,58 @@
       <c r="D26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>1898</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1423500</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="21" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="26">
         <v>1898</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="26">
         <v>1423500</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="32" t="s">
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="34"/>
       <c r="H32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="32" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" s="34"/>
       <c r="H33" s="1" t="s">
         <v>43</v>
       </c>
